--- a/Charlie 2 - Microsoft exchange/Analyse/Tijd_opvolging.xlsx
+++ b/Charlie 2 - Microsoft exchange/Analyse/Tijd_opvolging.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\HoGent\Cursussen\Jaar 5\Project III Systeembeheer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens\Documents\p3ops-red\Charlie 2 - Microsoft exchange\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Geschatte tijd</t>
-  </si>
-  <si>
-    <t>Gerealiseerde tijd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Opdracht</t>
   </si>
@@ -39,6 +33,27 @@
   </si>
   <si>
     <t>Prerequisites installeren</t>
+  </si>
+  <si>
+    <t>Script prerequisites</t>
+  </si>
+  <si>
+    <t>Testplan prerequistes</t>
+  </si>
+  <si>
+    <t>Installatiescript (making dir, extractin + running setup)</t>
+  </si>
+  <si>
+    <t>Installatiescript (entering dir + pressing enter)</t>
+  </si>
+  <si>
+    <t>Installatiescript (Checking of extraction is complete)</t>
+  </si>
+  <si>
+    <t>Geschatte tijd (uur)</t>
+  </si>
+  <si>
+    <t>Gerealiseerde tijd (uur)</t>
   </si>
 </sst>
 </file>
@@ -74,12 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,10 +110,975 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Tijdsregistratie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="482593320"/>
+        <c:axId val="482593712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482593320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482593712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482593712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482593320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +1116,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -207,7 +1188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,16 +1340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -403,27 +1384,66 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4.45</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D5">
+        <v>5.45</v>
+      </c>
+      <c r="E5">
+        <v>1.3</v>
+      </c>
+      <c r="F5">
+        <v>5.5</v>
+      </c>
+      <c r="G5">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -434,12 +1454,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -450,11 +1470,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -464,63 +1486,71 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -534,7 +1564,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9</v>
       </c>
@@ -548,7 +1578,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -562,7 +1592,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -576,7 +1606,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>12</v>
       </c>
@@ -590,7 +1620,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>13</v>
       </c>
@@ -604,7 +1634,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>14</v>
       </c>
@@ -620,6 +1650,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B18:J18"/>
@@ -628,13 +1664,8 @@
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>